--- a/documents/planifInitiale/planificationInitiale.xlsx
+++ b/documents/planifInitiale/planificationInitiale.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pg66hua\Documents\GitHub\Mostly_Human\documents\planifInitiale\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{458B74C2-1BC8-449D-8139-7C98216F273C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90DB9082-8407-4B9E-90E4-AE81DB5ABB61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{12B565E1-A94C-4212-9652-EB583843C78C}"/>
   </bookViews>
@@ -44,9 +44,6 @@
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t>Etablir la connection MQTT entre les clients (prof et élève)</t>
-  </si>
-  <si>
     <t>lire / modifier / exporter / importer une bibliothèque sur le pc prof</t>
   </si>
   <si>
@@ -56,9 +53,6 @@
     <t>Détection des post allumés et si l'agent est allumé</t>
   </si>
   <si>
-    <t>Lire les dépassements apres le test (prof)</t>
-  </si>
-  <si>
     <t>27.01.2024 -&gt; 07.02.2024</t>
   </si>
   <si>
@@ -93,6 +87,12 @@
   </si>
   <si>
     <t>Sprint 3</t>
+  </si>
+  <si>
+    <t>Etablir la connexion MQTT entre les clients (prof et élève)</t>
+  </si>
+  <si>
+    <t>Lire les dépassements après le test (prof)</t>
   </si>
 </sst>
 </file>
@@ -264,36 +264,6 @@
   </cellStyleXfs>
   <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -303,6 +273,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -321,6 +309,72 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -339,58 +393,40 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -409,42 +445,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -761,531 +761,537 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E12F2B7-62EC-4EFE-A59D-44917CCB0908}">
-  <dimension ref="B2:M38"/>
+  <dimension ref="B2:M37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="V17" sqref="V17"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="R23" sqref="R23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="3" width="10.7109375" customWidth="1"/>
+    <col min="4" max="4" width="3.5703125" customWidth="1"/>
+    <col min="5" max="12" width="8.28515625" customWidth="1"/>
+    <col min="13" max="13" width="3.5703125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="2" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="6"/>
-      <c r="L3" s="6"/>
-      <c r="M3" s="7"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="11"/>
+      <c r="K3" s="11"/>
+      <c r="L3" s="11"/>
+      <c r="M3" s="12"/>
     </row>
     <row r="4" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D4" s="8"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9"/>
-      <c r="J4" s="9"/>
-      <c r="K4" s="9"/>
-      <c r="L4" s="9"/>
-      <c r="M4" s="10"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="14"/>
+      <c r="J4" s="14"/>
+      <c r="K4" s="14"/>
+      <c r="L4" s="14"/>
+      <c r="M4" s="15"/>
     </row>
     <row r="5" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="2"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="12"/>
-      <c r="J5" s="12"/>
-      <c r="K5" s="12"/>
-      <c r="L5" s="12"/>
-      <c r="M5" s="13"/>
+      <c r="B5" s="34" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="35"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="3"/>
     </row>
     <row r="6" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="3"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="20" t="s">
+      <c r="B6" s="36"/>
+      <c r="C6" s="37"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" s="17"/>
+      <c r="G6" s="17"/>
+      <c r="H6" s="17"/>
+      <c r="I6" s="17"/>
+      <c r="J6" s="17"/>
+      <c r="K6" s="17"/>
+      <c r="L6" s="18"/>
+      <c r="M6" s="6"/>
+    </row>
+    <row r="7" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="4"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="20"/>
+      <c r="G7" s="20"/>
+      <c r="H7" s="20"/>
+      <c r="I7" s="20"/>
+      <c r="J7" s="20"/>
+      <c r="K7" s="20"/>
+      <c r="L7" s="21"/>
+      <c r="M7" s="6"/>
+    </row>
+    <row r="8" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="34" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="35"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="6"/>
+    </row>
+    <row r="9" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="36"/>
+      <c r="C9" s="37"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="F6" s="21"/>
-      <c r="G6" s="21"/>
-      <c r="H6" s="21"/>
-      <c r="I6" s="21"/>
-      <c r="J6" s="21"/>
-      <c r="K6" s="21"/>
-      <c r="L6" s="22"/>
-      <c r="M6" s="16"/>
-    </row>
-    <row r="7" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="14"/>
-      <c r="C7" s="16"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="23"/>
-      <c r="F7" s="24"/>
-      <c r="G7" s="24"/>
-      <c r="H7" s="24"/>
-      <c r="I7" s="24"/>
-      <c r="J7" s="24"/>
-      <c r="K7" s="24"/>
-      <c r="L7" s="25"/>
-      <c r="M7" s="16"/>
-    </row>
-    <row r="8" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" s="2"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="15"/>
-      <c r="G8" s="15"/>
-      <c r="H8" s="15"/>
-      <c r="I8" s="15"/>
-      <c r="J8" s="15"/>
-      <c r="K8" s="15"/>
-      <c r="L8" s="15"/>
-      <c r="M8" s="16"/>
-    </row>
-    <row r="9" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="3"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="32" t="s">
+      <c r="F9" s="23"/>
+      <c r="G9" s="23"/>
+      <c r="H9" s="23"/>
+      <c r="I9" s="23"/>
+      <c r="J9" s="23"/>
+      <c r="K9" s="23"/>
+      <c r="L9" s="24"/>
+      <c r="M9" s="6"/>
+    </row>
+    <row r="10" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="4"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="25"/>
+      <c r="F10" s="26"/>
+      <c r="G10" s="26"/>
+      <c r="H10" s="26"/>
+      <c r="I10" s="26"/>
+      <c r="J10" s="26"/>
+      <c r="K10" s="26"/>
+      <c r="L10" s="27"/>
+      <c r="M10" s="6"/>
+    </row>
+    <row r="11" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="35"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="M11" s="6"/>
+    </row>
+    <row r="12" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="36"/>
+      <c r="C12" s="37"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="F9" s="33"/>
-      <c r="G9" s="33"/>
-      <c r="H9" s="33"/>
-      <c r="I9" s="33"/>
-      <c r="J9" s="33"/>
-      <c r="K9" s="33"/>
-      <c r="L9" s="34"/>
-      <c r="M9" s="16"/>
-    </row>
-    <row r="10" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="14"/>
-      <c r="C10" s="16"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="35"/>
-      <c r="F10" s="36"/>
-      <c r="G10" s="36"/>
-      <c r="H10" s="36"/>
-      <c r="I10" s="36"/>
-      <c r="J10" s="36"/>
-      <c r="K10" s="36"/>
-      <c r="L10" s="37"/>
-      <c r="M10" s="16"/>
-    </row>
-    <row r="11" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C11" s="2"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="15"/>
-      <c r="G11" s="15"/>
-      <c r="H11" s="15"/>
-      <c r="I11" s="15"/>
-      <c r="J11" s="15"/>
-      <c r="K11" s="15"/>
-      <c r="L11" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="M11" s="16"/>
-    </row>
-    <row r="12" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="3"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="38" t="s">
-        <v>4</v>
-      </c>
-      <c r="F12" s="39"/>
-      <c r="G12" s="39"/>
-      <c r="H12" s="39"/>
-      <c r="I12" s="39"/>
-      <c r="J12" s="39"/>
-      <c r="K12" s="39"/>
-      <c r="L12" s="40"/>
-      <c r="M12" s="16"/>
+      <c r="F12" s="29"/>
+      <c r="G12" s="29"/>
+      <c r="H12" s="29"/>
+      <c r="I12" s="29"/>
+      <c r="J12" s="29"/>
+      <c r="K12" s="29"/>
+      <c r="L12" s="30"/>
+      <c r="M12" s="6"/>
     </row>
     <row r="13" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="15"/>
-      <c r="C13" s="16"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="41"/>
-      <c r="F13" s="42"/>
-      <c r="G13" s="42"/>
-      <c r="H13" s="42"/>
-      <c r="I13" s="42"/>
-      <c r="J13" s="42"/>
-      <c r="K13" s="42"/>
-      <c r="L13" s="43"/>
-      <c r="M13" s="16"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="31"/>
+      <c r="F13" s="32"/>
+      <c r="G13" s="32"/>
+      <c r="H13" s="32"/>
+      <c r="I13" s="32"/>
+      <c r="J13" s="32"/>
+      <c r="K13" s="32"/>
+      <c r="L13" s="33"/>
+      <c r="M13" s="6"/>
     </row>
     <row r="14" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="15"/>
-      <c r="C14" s="16"/>
-      <c r="D14" s="17"/>
-      <c r="E14" s="18"/>
-      <c r="F14" s="18"/>
-      <c r="G14" s="18"/>
-      <c r="H14" s="18"/>
-      <c r="I14" s="18"/>
-      <c r="J14" s="18"/>
-      <c r="K14" s="18"/>
-      <c r="L14" s="18"/>
-      <c r="M14" s="19"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8"/>
+      <c r="K14" s="8"/>
+      <c r="L14" s="8"/>
+      <c r="M14" s="9"/>
     </row>
     <row r="15" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="16" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D16" s="5" t="s">
+      <c r="D16" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="11"/>
+      <c r="J16" s="11"/>
+      <c r="K16" s="11"/>
+      <c r="L16" s="11"/>
+      <c r="M16" s="12"/>
+    </row>
+    <row r="17" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17" s="35"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="14"/>
+      <c r="H17" s="14"/>
+      <c r="I17" s="14"/>
+      <c r="J17" s="14"/>
+      <c r="K17" s="14"/>
+      <c r="L17" s="14"/>
+      <c r="M17" s="15"/>
+    </row>
+    <row r="18" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="36"/>
+      <c r="C18" s="37"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="2"/>
+      <c r="L18" s="2"/>
+      <c r="M18" s="3"/>
+    </row>
+    <row r="19" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="4"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="44" t="s">
+        <v>4</v>
+      </c>
+      <c r="F19" s="45"/>
+      <c r="G19" s="45"/>
+      <c r="H19" s="45"/>
+      <c r="I19" s="45"/>
+      <c r="J19" s="45"/>
+      <c r="K19" s="45"/>
+      <c r="L19" s="46"/>
+      <c r="M19" s="6"/>
+    </row>
+    <row r="20" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="C20" s="35"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="47"/>
+      <c r="F20" s="48"/>
+      <c r="G20" s="48"/>
+      <c r="H20" s="48"/>
+      <c r="I20" s="48"/>
+      <c r="J20" s="48"/>
+      <c r="K20" s="48"/>
+      <c r="L20" s="49"/>
+      <c r="M20" s="6"/>
+    </row>
+    <row r="21" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="36"/>
+      <c r="C21" s="37"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="5"/>
+      <c r="J21" s="5"/>
+      <c r="K21" s="5"/>
+      <c r="L21" s="5"/>
+      <c r="M21" s="6"/>
+    </row>
+    <row r="22" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="4"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="F22" s="39"/>
+      <c r="G22" s="39"/>
+      <c r="H22" s="39"/>
+      <c r="I22" s="39"/>
+      <c r="J22" s="39"/>
+      <c r="K22" s="39"/>
+      <c r="L22" s="40"/>
+      <c r="M22" s="6"/>
+    </row>
+    <row r="23" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="C23" s="35"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="41"/>
+      <c r="F23" s="42"/>
+      <c r="G23" s="42"/>
+      <c r="H23" s="42"/>
+      <c r="I23" s="42"/>
+      <c r="J23" s="42"/>
+      <c r="K23" s="42"/>
+      <c r="L23" s="43"/>
+      <c r="M23" s="6"/>
+    </row>
+    <row r="24" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="36"/>
+      <c r="C24" s="37"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="8"/>
+      <c r="J24" s="8"/>
+      <c r="K24" s="8"/>
+      <c r="L24" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="M24" s="9"/>
+    </row>
+    <row r="25" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="26" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D26" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E26" s="11"/>
+      <c r="F26" s="11"/>
+      <c r="G26" s="11"/>
+      <c r="H26" s="11"/>
+      <c r="I26" s="11"/>
+      <c r="J26" s="11"/>
+      <c r="K26" s="11"/>
+      <c r="L26" s="11"/>
+      <c r="M26" s="12"/>
+    </row>
+    <row r="27" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D27" s="13"/>
+      <c r="E27" s="14"/>
+      <c r="F27" s="14"/>
+      <c r="G27" s="14"/>
+      <c r="H27" s="14"/>
+      <c r="I27" s="14"/>
+      <c r="J27" s="14"/>
+      <c r="K27" s="14"/>
+      <c r="L27" s="14"/>
+      <c r="M27" s="15"/>
+    </row>
+    <row r="28" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="6"/>
-      <c r="I16" s="6"/>
-      <c r="J16" s="6"/>
-      <c r="K16" s="6"/>
-      <c r="L16" s="6"/>
-      <c r="M16" s="7"/>
-    </row>
-    <row r="17" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C17" s="2"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="9"/>
-      <c r="H17" s="9"/>
-      <c r="I17" s="9"/>
-      <c r="J17" s="9"/>
-      <c r="K17" s="9"/>
-      <c r="L17" s="9"/>
-      <c r="M17" s="10"/>
-    </row>
-    <row r="18" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="3"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="12"/>
-      <c r="F18" s="12"/>
-      <c r="G18" s="12"/>
-      <c r="H18" s="12"/>
-      <c r="I18" s="12"/>
-      <c r="J18" s="12"/>
-      <c r="K18" s="12"/>
-      <c r="L18" s="12"/>
-      <c r="M18" s="13"/>
-    </row>
-    <row r="19" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="14"/>
-      <c r="C19" s="16"/>
-      <c r="D19" s="14"/>
-      <c r="E19" s="26" t="s">
-        <v>5</v>
-      </c>
-      <c r="F19" s="27"/>
-      <c r="G19" s="27"/>
-      <c r="H19" s="27"/>
-      <c r="I19" s="27"/>
-      <c r="J19" s="27"/>
-      <c r="K19" s="27"/>
-      <c r="L19" s="28"/>
-      <c r="M19" s="16"/>
-    </row>
-    <row r="20" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="1" t="s">
+      <c r="C28" s="35"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2"/>
+      <c r="I28" s="2"/>
+      <c r="J28" s="2"/>
+      <c r="K28" s="2"/>
+      <c r="L28" s="2"/>
+      <c r="M28" s="3"/>
+    </row>
+    <row r="29" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="36"/>
+      <c r="C29" s="37"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="62" t="s">
+        <v>7</v>
+      </c>
+      <c r="F29" s="63"/>
+      <c r="G29" s="63"/>
+      <c r="H29" s="63"/>
+      <c r="I29" s="63"/>
+      <c r="J29" s="63"/>
+      <c r="K29" s="63"/>
+      <c r="L29" s="64"/>
+      <c r="M29" s="6"/>
+    </row>
+    <row r="30" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B30" s="4"/>
+      <c r="C30" s="6"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="65"/>
+      <c r="F30" s="66"/>
+      <c r="G30" s="66"/>
+      <c r="H30" s="66"/>
+      <c r="I30" s="66"/>
+      <c r="J30" s="66"/>
+      <c r="K30" s="66"/>
+      <c r="L30" s="67"/>
+      <c r="M30" s="6"/>
+    </row>
+    <row r="31" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B31" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="C31" s="35"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="5"/>
+      <c r="F31" s="5"/>
+      <c r="G31" s="5"/>
+      <c r="H31" s="5"/>
+      <c r="I31" s="5"/>
+      <c r="J31" s="5"/>
+      <c r="K31" s="5"/>
+      <c r="L31" s="5"/>
+      <c r="M31" s="6"/>
+    </row>
+    <row r="32" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B32" s="36"/>
+      <c r="C32" s="37"/>
+      <c r="D32" s="4"/>
+      <c r="E32" s="50" t="s">
+        <v>9</v>
+      </c>
+      <c r="F32" s="51"/>
+      <c r="G32" s="51"/>
+      <c r="H32" s="51"/>
+      <c r="I32" s="51"/>
+      <c r="J32" s="51"/>
+      <c r="K32" s="51"/>
+      <c r="L32" s="52"/>
+      <c r="M32" s="6"/>
+    </row>
+    <row r="33" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B33" s="4"/>
+      <c r="C33" s="6"/>
+      <c r="D33" s="4"/>
+      <c r="E33" s="53"/>
+      <c r="F33" s="54"/>
+      <c r="G33" s="54"/>
+      <c r="H33" s="54"/>
+      <c r="I33" s="54"/>
+      <c r="J33" s="54"/>
+      <c r="K33" s="54"/>
+      <c r="L33" s="55"/>
+      <c r="M33" s="6"/>
+    </row>
+    <row r="34" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B34" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="C20" s="2"/>
-      <c r="D20" s="14"/>
-      <c r="E20" s="29"/>
-      <c r="F20" s="30"/>
-      <c r="G20" s="30"/>
-      <c r="H20" s="30"/>
-      <c r="I20" s="30"/>
-      <c r="J20" s="30"/>
-      <c r="K20" s="30"/>
-      <c r="L20" s="31"/>
-      <c r="M20" s="16"/>
-    </row>
-    <row r="21" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="3"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="14"/>
-      <c r="E21" s="15"/>
-      <c r="F21" s="15"/>
-      <c r="G21" s="15"/>
-      <c r="H21" s="15"/>
-      <c r="I21" s="15"/>
-      <c r="J21" s="15"/>
-      <c r="K21" s="15"/>
-      <c r="L21" s="15"/>
-      <c r="M21" s="16"/>
-    </row>
-    <row r="22" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="14"/>
-      <c r="C22" s="16"/>
-      <c r="D22" s="14"/>
-      <c r="E22" s="44" t="s">
-        <v>10</v>
-      </c>
-      <c r="F22" s="45"/>
-      <c r="G22" s="45"/>
-      <c r="H22" s="45"/>
-      <c r="I22" s="45"/>
-      <c r="J22" s="45"/>
-      <c r="K22" s="45"/>
-      <c r="L22" s="46"/>
-      <c r="M22" s="16"/>
-    </row>
-    <row r="23" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C23" s="2"/>
-      <c r="D23" s="14"/>
-      <c r="E23" s="47"/>
-      <c r="F23" s="48"/>
-      <c r="G23" s="48"/>
-      <c r="H23" s="48"/>
-      <c r="I23" s="48"/>
-      <c r="J23" s="48"/>
-      <c r="K23" s="48"/>
-      <c r="L23" s="49"/>
-      <c r="M23" s="16"/>
-    </row>
-    <row r="24" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="3"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="17"/>
-      <c r="E24" s="18"/>
-      <c r="F24" s="18"/>
-      <c r="G24" s="18"/>
-      <c r="H24" s="18"/>
-      <c r="I24" s="18"/>
-      <c r="J24" s="18"/>
-      <c r="K24" s="18"/>
-      <c r="L24" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="M24" s="19"/>
-    </row>
-    <row r="26" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="D27" s="5" t="s">
+      <c r="C34" s="35"/>
+      <c r="D34" s="4"/>
+      <c r="E34" s="5"/>
+      <c r="F34" s="5"/>
+      <c r="G34" s="5"/>
+      <c r="H34" s="5"/>
+      <c r="I34" s="5"/>
+      <c r="J34" s="5"/>
+      <c r="K34" s="5"/>
+      <c r="L34" s="5"/>
+      <c r="M34" s="6"/>
+    </row>
+    <row r="35" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B35" s="36"/>
+      <c r="C35" s="37"/>
+      <c r="D35" s="4"/>
+      <c r="E35" s="56" t="s">
         <v>18</v>
       </c>
-      <c r="E27" s="6"/>
-      <c r="F27" s="6"/>
-      <c r="G27" s="6"/>
-      <c r="H27" s="6"/>
-      <c r="I27" s="6"/>
-      <c r="J27" s="6"/>
-      <c r="K27" s="6"/>
-      <c r="L27" s="6"/>
-      <c r="M27" s="7"/>
-    </row>
-    <row r="28" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D28" s="8"/>
-      <c r="E28" s="9"/>
-      <c r="F28" s="9"/>
-      <c r="G28" s="9"/>
-      <c r="H28" s="9"/>
-      <c r="I28" s="9"/>
-      <c r="J28" s="9"/>
-      <c r="K28" s="9"/>
-      <c r="L28" s="9"/>
-      <c r="M28" s="10"/>
-    </row>
-    <row r="29" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C29" s="2"/>
-      <c r="D29" s="11"/>
-      <c r="E29" s="12"/>
-      <c r="F29" s="12"/>
-      <c r="G29" s="12"/>
-      <c r="H29" s="12"/>
-      <c r="I29" s="12"/>
-      <c r="J29" s="12"/>
-      <c r="K29" s="12"/>
-      <c r="L29" s="12"/>
-      <c r="M29" s="13"/>
-    </row>
-    <row r="30" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="3"/>
-      <c r="C30" s="4"/>
-      <c r="D30" s="14"/>
-      <c r="E30" s="50" t="s">
-        <v>9</v>
-      </c>
-      <c r="F30" s="51"/>
-      <c r="G30" s="51"/>
-      <c r="H30" s="51"/>
-      <c r="I30" s="51"/>
-      <c r="J30" s="51"/>
-      <c r="K30" s="51"/>
-      <c r="L30" s="52"/>
-      <c r="M30" s="16"/>
-    </row>
-    <row r="31" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="14"/>
-      <c r="C31" s="16"/>
-      <c r="D31" s="14"/>
-      <c r="E31" s="53"/>
-      <c r="F31" s="54"/>
-      <c r="G31" s="54"/>
-      <c r="H31" s="54"/>
-      <c r="I31" s="54"/>
-      <c r="J31" s="54"/>
-      <c r="K31" s="54"/>
-      <c r="L31" s="55"/>
-      <c r="M31" s="16"/>
-    </row>
-    <row r="32" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C32" s="2"/>
-      <c r="D32" s="14"/>
-      <c r="E32" s="15"/>
-      <c r="F32" s="15"/>
-      <c r="G32" s="15"/>
-      <c r="H32" s="15"/>
-      <c r="I32" s="15"/>
-      <c r="J32" s="15"/>
-      <c r="K32" s="15"/>
-      <c r="L32" s="15"/>
-      <c r="M32" s="16"/>
-    </row>
-    <row r="33" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="3"/>
-      <c r="C33" s="4"/>
-      <c r="D33" s="14"/>
-      <c r="E33" s="56" t="s">
-        <v>11</v>
-      </c>
-      <c r="F33" s="57"/>
-      <c r="G33" s="57"/>
-      <c r="H33" s="57"/>
-      <c r="I33" s="57"/>
-      <c r="J33" s="57"/>
-      <c r="K33" s="57"/>
-      <c r="L33" s="58"/>
-      <c r="M33" s="16"/>
-    </row>
-    <row r="34" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="14"/>
-      <c r="C34" s="16"/>
-      <c r="D34" s="14"/>
-      <c r="E34" s="59"/>
-      <c r="F34" s="60"/>
-      <c r="G34" s="60"/>
-      <c r="H34" s="60"/>
-      <c r="I34" s="60"/>
-      <c r="J34" s="60"/>
-      <c r="K34" s="60"/>
-      <c r="L34" s="61"/>
-      <c r="M34" s="16"/>
-    </row>
-    <row r="35" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C35" s="2"/>
-      <c r="D35" s="14"/>
-      <c r="E35" s="15"/>
-      <c r="F35" s="15"/>
-      <c r="G35" s="15"/>
-      <c r="H35" s="15"/>
-      <c r="I35" s="15"/>
-      <c r="J35" s="15"/>
-      <c r="K35" s="15"/>
-      <c r="L35" s="15"/>
-      <c r="M35" s="16"/>
+      <c r="F35" s="57"/>
+      <c r="G35" s="57"/>
+      <c r="H35" s="57"/>
+      <c r="I35" s="57"/>
+      <c r="J35" s="57"/>
+      <c r="K35" s="57"/>
+      <c r="L35" s="58"/>
+      <c r="M35" s="6"/>
     </row>
     <row r="36" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="3"/>
-      <c r="C36" s="4"/>
-      <c r="D36" s="14"/>
-      <c r="E36" s="62" t="s">
-        <v>6</v>
-      </c>
-      <c r="F36" s="63"/>
-      <c r="G36" s="63"/>
-      <c r="H36" s="63"/>
-      <c r="I36" s="63"/>
-      <c r="J36" s="63"/>
-      <c r="K36" s="63"/>
-      <c r="L36" s="64"/>
-      <c r="M36" s="16"/>
+      <c r="D36" s="4"/>
+      <c r="E36" s="59"/>
+      <c r="F36" s="60"/>
+      <c r="G36" s="60"/>
+      <c r="H36" s="60"/>
+      <c r="I36" s="60"/>
+      <c r="J36" s="60"/>
+      <c r="K36" s="60"/>
+      <c r="L36" s="61"/>
+      <c r="M36" s="6"/>
     </row>
     <row r="37" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D37" s="14"/>
-      <c r="E37" s="65"/>
-      <c r="F37" s="66"/>
-      <c r="G37" s="66"/>
-      <c r="H37" s="66"/>
-      <c r="I37" s="66"/>
-      <c r="J37" s="66"/>
-      <c r="K37" s="66"/>
-      <c r="L37" s="67"/>
-      <c r="M37" s="16"/>
-    </row>
-    <row r="38" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D38" s="17"/>
-      <c r="E38" s="18"/>
-      <c r="F38" s="18"/>
-      <c r="G38" s="18"/>
-      <c r="H38" s="18"/>
-      <c r="I38" s="18"/>
-      <c r="J38" s="18"/>
-      <c r="K38" s="18"/>
-      <c r="L38" s="18"/>
-      <c r="M38" s="19"/>
+      <c r="D37" s="7"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="8"/>
+      <c r="G37" s="8"/>
+      <c r="H37" s="8"/>
+      <c r="I37" s="8"/>
+      <c r="J37" s="8"/>
+      <c r="K37" s="8"/>
+      <c r="L37" s="8"/>
+      <c r="M37" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="B29:C30"/>
-    <mergeCell ref="B32:C33"/>
-    <mergeCell ref="B35:C36"/>
-    <mergeCell ref="D27:M28"/>
-    <mergeCell ref="E33:L34"/>
-    <mergeCell ref="E36:L37"/>
-    <mergeCell ref="E12:L13"/>
-    <mergeCell ref="B5:C6"/>
-    <mergeCell ref="B8:C9"/>
-    <mergeCell ref="B11:C12"/>
+    <mergeCell ref="B28:C29"/>
+    <mergeCell ref="B31:C32"/>
+    <mergeCell ref="B34:C35"/>
+    <mergeCell ref="D26:M27"/>
+    <mergeCell ref="E32:L33"/>
+    <mergeCell ref="E35:L36"/>
+    <mergeCell ref="E29:L30"/>
     <mergeCell ref="E22:L23"/>
     <mergeCell ref="B17:C18"/>
     <mergeCell ref="B20:C21"/>
     <mergeCell ref="D16:M17"/>
     <mergeCell ref="E19:L20"/>
-    <mergeCell ref="E30:L31"/>
     <mergeCell ref="B23:C24"/>
     <mergeCell ref="D3:M4"/>
     <mergeCell ref="E6:L7"/>
     <mergeCell ref="E9:L10"/>
+    <mergeCell ref="E12:L13"/>
+    <mergeCell ref="B5:C6"/>
+    <mergeCell ref="B8:C9"/>
+    <mergeCell ref="B11:C12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
